--- a/biology/Zoologie/Crinia_georgiana/Crinia_georgiana.xlsx
+++ b/biology/Zoologie/Crinia_georgiana/Crinia_georgiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crinia georgiana est une espèce d'amphibiens de la famille des Myobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crinia georgiana est une espèce d'amphibiens de la famille des Myobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de l'Australie-Occidentale. Elle se rencontre jusqu'à 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de l'Australie-Occidentale. Elle se rencontre jusqu'à 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crinia georgiana mesure de 24 à 32 mm pour les mâles et de 30 à 36 mm pour les femelles. Son dos varie de l'orangé au brun très foncé avec des marbrures ou des bandes brunes de chaque côté. Son ventre est gris sale chez le mâle et blanc brillant chez la femelle. Les deux sexes présentent une tache blanche à la racine des membres.
 Les têtards sont de couleur dorée avec une queue transparente.
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tschudi, 1838 : Classification der Batrachier, mit Berucksichtigung der fossilen Thiere dieser Abtheilung der Reptilien, p. 1-99 (texte intégral).</t>
         </is>
